--- a/assets/excel/template_planvsreal.xlsx
+++ b/assets/excel/template_planvsreal.xlsx
@@ -1512,7 +1512,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
